--- a/biology/Histoire de la zoologie et de la botanique/Heinrich_August_Ludwig_Wiggers/Heinrich_August_Ludwig_Wiggers.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Heinrich_August_Ludwig_Wiggers/Heinrich_August_Ludwig_Wiggers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heinrich August Ludwig Wiggers est un botaniste prussien, né le 12 juin 1803 à Altenhagen, électorat de Brunswick-Lunebourg et mort le 13 février 1880 à Göttingen.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient un doctorat de philosophie à Göttingen en 1835. Pharmacien de 1816 à 1827, il devient assistant au laboratoire de chimie de Göttingen d’abord sous la direction de Friedrich Stromeyer (1776-1835), puis sous celle de Friedrich Wöhler (1800-1882), fonction qu’il occupe de 1828 à 1849. En outre, il est Privatdozent en 1837, et, à partir de 1848, professeur extraordinaire de pharmacie à l’université. De 1836 à 1850, il est représentant inspecteur général des pharmacies de Hanovre.
 </t>
